--- a/Excel Files/Stats_hL15.xlsx
+++ b/Excel Files/Stats_hL15.xlsx
@@ -844,52 +844,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.13</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.14000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.44</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.48</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.51</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.6</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.68</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -905,11 +905,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1748890048"/>
-        <c:axId val="-1748887328"/>
+        <c:axId val="-1871235088"/>
+        <c:axId val="-1871232368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1748890048"/>
+        <c:axId val="-1871235088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,7 +1022,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1748887328"/>
+        <c:crossAx val="-1871232368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1030,7 +1030,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1748887328"/>
+        <c:axId val="-1871232368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,7 +1137,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1748890048"/>
+        <c:crossAx val="-1871235088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2043,7 +2043,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="M2" sqref="M2:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2115,55 +2115,55 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2885</v>
+        <v>3885</v>
       </c>
       <c r="B2">
-        <v>2544</v>
+        <v>2617</v>
       </c>
       <c r="C2">
-        <v>341</v>
+        <v>1268</v>
       </c>
       <c r="D2">
-        <v>1696</v>
+        <v>1835</v>
       </c>
       <c r="E2">
-        <v>1189</v>
+        <v>2050</v>
       </c>
       <c r="F2">
-        <v>1511</v>
+        <v>1254</v>
       </c>
       <c r="G2">
-        <v>1033</v>
+        <v>1363</v>
       </c>
       <c r="H2">
-        <v>185</v>
+        <v>581</v>
       </c>
       <c r="I2">
-        <v>156</v>
+        <v>687</v>
       </c>
       <c r="J2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>4.53</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="M2" s="1">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="N2">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="O2">
-        <v>-0.61</v>
+        <v>-0.22</v>
       </c>
       <c r="P2">
         <v>28.13</v>
       </c>
       <c r="Q2">
-        <v>-23.51</v>
+        <v>-28.16</v>
       </c>
       <c r="R2" s="2">
         <v>2</v>
@@ -2174,55 +2174,55 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2880</v>
+        <v>3882</v>
       </c>
       <c r="B3">
-        <v>2539</v>
+        <v>2614</v>
       </c>
       <c r="C3">
-        <v>341</v>
+        <v>1268</v>
       </c>
       <c r="D3">
-        <v>1407</v>
+        <v>1477</v>
       </c>
       <c r="E3">
-        <v>1473</v>
+        <v>2405</v>
       </c>
       <c r="F3">
-        <v>1235</v>
+        <v>983</v>
       </c>
       <c r="G3">
-        <v>1304</v>
+        <v>1631</v>
       </c>
       <c r="H3">
-        <v>172</v>
+        <v>494</v>
       </c>
       <c r="I3">
-        <v>169</v>
+        <v>774</v>
       </c>
       <c r="J3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>6.41</v>
+        <v>3.69</v>
       </c>
       <c r="M3" s="1">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="N3">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="O3">
-        <v>-0.48</v>
+        <v>-0.18</v>
       </c>
       <c r="P3">
         <v>28.13</v>
       </c>
       <c r="Q3">
-        <v>-23.51</v>
+        <v>-28.16</v>
       </c>
       <c r="R3" s="2">
         <v>2</v>
@@ -2233,55 +2233,55 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2880</v>
+        <v>3880</v>
       </c>
       <c r="B4">
-        <v>2539</v>
+        <v>2612</v>
       </c>
       <c r="C4">
-        <v>341</v>
+        <v>1268</v>
       </c>
       <c r="D4">
-        <v>1368</v>
+        <v>1430</v>
       </c>
       <c r="E4">
-        <v>1512</v>
+        <v>2450</v>
       </c>
       <c r="F4">
-        <v>1198</v>
+        <v>955</v>
       </c>
       <c r="G4">
-        <v>1341</v>
+        <v>1657</v>
       </c>
       <c r="H4">
-        <v>170</v>
+        <v>475</v>
       </c>
       <c r="I4">
-        <v>171</v>
+        <v>793</v>
       </c>
       <c r="J4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>6.9</v>
+        <v>4.05</v>
       </c>
       <c r="M4" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="N4">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="O4">
-        <v>-0.48</v>
+        <v>-0.21</v>
       </c>
       <c r="P4">
         <v>28.13</v>
       </c>
       <c r="Q4">
-        <v>-23.51</v>
+        <v>-28.16</v>
       </c>
       <c r="R4" s="2">
         <v>2</v>
@@ -2292,55 +2292,55 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2880</v>
+        <v>3880</v>
       </c>
       <c r="B5">
-        <v>2539</v>
+        <v>2612</v>
       </c>
       <c r="C5">
-        <v>341</v>
+        <v>1268</v>
       </c>
       <c r="D5">
-        <v>1350</v>
+        <v>1407</v>
       </c>
       <c r="E5">
-        <v>1530</v>
+        <v>2473</v>
       </c>
       <c r="F5">
-        <v>1182</v>
+        <v>942</v>
       </c>
       <c r="G5">
-        <v>1357</v>
+        <v>1670</v>
       </c>
       <c r="H5">
-        <v>168</v>
+        <v>465</v>
       </c>
       <c r="I5">
-        <v>173</v>
+        <v>803</v>
       </c>
       <c r="J5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>7.7</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="M5" s="1">
-        <v>0.13</v>
+        <v>-0.01</v>
       </c>
       <c r="N5">
-        <v>0.18</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O5">
-        <v>-0.28999999999999998</v>
+        <v>-0.15</v>
       </c>
       <c r="P5">
         <v>28.13</v>
       </c>
       <c r="Q5">
-        <v>-23.51</v>
+        <v>-28.16</v>
       </c>
       <c r="R5" s="2">
         <v>2</v>
@@ -2351,55 +2351,55 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2880</v>
+        <v>3883</v>
       </c>
       <c r="B6">
-        <v>2538</v>
+        <v>2612</v>
       </c>
       <c r="C6">
-        <v>342</v>
+        <v>1271</v>
       </c>
       <c r="D6">
-        <v>2096</v>
+        <v>2448</v>
       </c>
       <c r="E6">
-        <v>784</v>
+        <v>1435</v>
       </c>
       <c r="F6">
-        <v>1857</v>
+        <v>1687</v>
       </c>
       <c r="G6">
-        <v>681</v>
+        <v>925</v>
       </c>
       <c r="H6">
-        <v>239</v>
+        <v>761</v>
       </c>
       <c r="I6">
-        <v>103</v>
+        <v>510</v>
       </c>
       <c r="J6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>6.42</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="M6" s="1">
-        <v>0.36</v>
+        <v>0.1</v>
       </c>
       <c r="N6">
-        <v>0.45</v>
+        <v>0.24</v>
       </c>
       <c r="O6">
-        <v>-0.27</v>
+        <v>-0.17</v>
       </c>
       <c r="P6">
         <v>28.13</v>
       </c>
       <c r="Q6">
-        <v>-20.79</v>
+        <v>-28.16</v>
       </c>
       <c r="R6" s="2">
         <v>4</v>
@@ -2410,55 +2410,55 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2873</v>
+        <v>3878</v>
       </c>
       <c r="B7">
-        <v>2531</v>
+        <v>2607</v>
       </c>
       <c r="C7">
-        <v>342</v>
+        <v>1271</v>
       </c>
       <c r="D7">
-        <v>1720</v>
+        <v>1914</v>
       </c>
       <c r="E7">
-        <v>1153</v>
+        <v>1964</v>
       </c>
       <c r="F7">
-        <v>1528</v>
+        <v>1336</v>
       </c>
       <c r="G7">
-        <v>1003</v>
+        <v>1271</v>
       </c>
       <c r="H7">
-        <v>192</v>
+        <v>578</v>
       </c>
       <c r="I7">
-        <v>150</v>
+        <v>693</v>
       </c>
       <c r="J7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>9.4700000000000006</v>
+        <v>6.15</v>
       </c>
       <c r="M7" s="1">
-        <v>0.4</v>
+        <v>0.09</v>
       </c>
       <c r="N7">
-        <v>0.47</v>
+        <v>0.23</v>
       </c>
       <c r="O7">
-        <v>-0.18</v>
+        <v>-0.22</v>
       </c>
       <c r="P7">
         <v>28.13</v>
       </c>
       <c r="Q7">
-        <v>-20.79</v>
+        <v>-28.16</v>
       </c>
       <c r="R7" s="2">
         <v>4</v>
@@ -2469,55 +2469,55 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2873</v>
+        <v>3877</v>
       </c>
       <c r="B8">
-        <v>2531</v>
+        <v>2606</v>
       </c>
       <c r="C8">
-        <v>342</v>
+        <v>1271</v>
       </c>
       <c r="D8">
-        <v>1627</v>
+        <v>1773</v>
       </c>
       <c r="E8">
-        <v>1246</v>
+        <v>2104</v>
       </c>
       <c r="F8">
-        <v>1449</v>
+        <v>1253</v>
       </c>
       <c r="G8">
-        <v>1082</v>
+        <v>1353</v>
       </c>
       <c r="H8">
-        <v>178</v>
+        <v>520</v>
       </c>
       <c r="I8">
-        <v>164</v>
+        <v>751</v>
       </c>
       <c r="J8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>10.42</v>
+        <v>6.84</v>
       </c>
       <c r="M8" s="1">
-        <v>0.4</v>
+        <v>0.06</v>
       </c>
       <c r="N8">
-        <v>0.49</v>
+        <v>0.23</v>
       </c>
       <c r="O8">
-        <v>-0.23</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="P8">
         <v>28.13</v>
       </c>
       <c r="Q8">
-        <v>-21.69</v>
+        <v>-28.16</v>
       </c>
       <c r="R8" s="2">
         <v>4</v>
@@ -2528,55 +2528,55 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2872</v>
+        <v>3877</v>
       </c>
       <c r="B9">
-        <v>2530</v>
+        <v>2606</v>
       </c>
       <c r="C9">
-        <v>342</v>
+        <v>1271</v>
       </c>
       <c r="D9">
-        <v>1517</v>
+        <v>1603</v>
       </c>
       <c r="E9">
-        <v>1355</v>
+        <v>2274</v>
       </c>
       <c r="F9">
-        <v>1354</v>
+        <v>1156</v>
       </c>
       <c r="G9">
-        <v>1176</v>
+        <v>1450</v>
       </c>
       <c r="H9">
-        <v>163</v>
+        <v>447</v>
       </c>
       <c r="I9">
-        <v>179</v>
+        <v>824</v>
       </c>
       <c r="J9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>12.25</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="M9" s="1">
-        <v>0.46</v>
+        <v>0.02</v>
       </c>
       <c r="N9">
-        <v>0.49</v>
+        <v>0.19</v>
       </c>
       <c r="O9">
-        <v>0.3</v>
+        <v>-0.32</v>
       </c>
       <c r="P9">
         <v>28.13</v>
       </c>
       <c r="Q9">
-        <v>-21.69</v>
+        <v>-28.16</v>
       </c>
       <c r="R9" s="2">
         <v>4</v>
@@ -2587,55 +2587,55 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2879</v>
+        <v>3881</v>
       </c>
       <c r="B10">
-        <v>2538</v>
+        <v>2611</v>
       </c>
       <c r="C10">
-        <v>341</v>
+        <v>1270</v>
       </c>
       <c r="D10">
-        <v>2155</v>
+        <v>2601</v>
       </c>
       <c r="E10">
-        <v>724</v>
+        <v>1280</v>
       </c>
       <c r="F10">
-        <v>1901</v>
+        <v>1788</v>
       </c>
       <c r="G10">
-        <v>637</v>
+        <v>823</v>
       </c>
       <c r="H10">
-        <v>254</v>
+        <v>813</v>
       </c>
       <c r="I10">
-        <v>87</v>
+        <v>457</v>
       </c>
       <c r="J10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>6.77</v>
+        <v>4.67</v>
       </c>
       <c r="M10" s="1">
-        <v>0.43</v>
+        <v>0.15</v>
       </c>
       <c r="N10">
-        <v>0.51</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="O10">
-        <v>-0.18</v>
+        <v>-0.13</v>
       </c>
       <c r="P10">
         <v>28.13</v>
       </c>
       <c r="Q10">
-        <v>-24.81</v>
+        <v>-28.16</v>
       </c>
       <c r="R10" s="2">
         <v>5</v>
@@ -2646,55 +2646,55 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2872</v>
+        <v>3876</v>
       </c>
       <c r="B11">
-        <v>2531</v>
+        <v>2606</v>
       </c>
       <c r="C11">
-        <v>341</v>
+        <v>1270</v>
       </c>
       <c r="D11">
-        <v>1795</v>
+        <v>2104</v>
       </c>
       <c r="E11">
-        <v>1077</v>
+        <v>1772</v>
       </c>
       <c r="F11">
-        <v>1585</v>
+        <v>1454</v>
       </c>
       <c r="G11">
-        <v>946</v>
+        <v>1152</v>
       </c>
       <c r="H11">
-        <v>210</v>
+        <v>650</v>
       </c>
       <c r="I11">
-        <v>131</v>
+        <v>620</v>
       </c>
       <c r="J11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>10.02</v>
+        <v>7.04</v>
       </c>
       <c r="M11" s="1">
-        <v>0.44</v>
+        <v>0.18</v>
       </c>
       <c r="N11">
-        <v>0.52</v>
+        <v>0.31</v>
       </c>
       <c r="O11">
-        <v>-0.19</v>
+        <v>-0.1</v>
       </c>
       <c r="P11">
         <v>28.13</v>
       </c>
       <c r="Q11">
-        <v>-24.81</v>
+        <v>-28.16</v>
       </c>
       <c r="R11" s="2">
         <v>5</v>
@@ -2705,55 +2705,55 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2872</v>
+        <v>3875</v>
       </c>
       <c r="B12">
-        <v>2531</v>
+        <v>2605</v>
       </c>
       <c r="C12">
-        <v>341</v>
+        <v>1270</v>
       </c>
       <c r="D12">
-        <v>1693</v>
+        <v>1942</v>
       </c>
       <c r="E12">
-        <v>1179</v>
+        <v>1933</v>
       </c>
       <c r="F12">
-        <v>1501</v>
+        <v>1367</v>
       </c>
       <c r="G12">
-        <v>1030</v>
+        <v>1238</v>
       </c>
       <c r="H12">
-        <v>192</v>
+        <v>575</v>
       </c>
       <c r="I12">
-        <v>149</v>
+        <v>695</v>
       </c>
       <c r="J12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>11.07</v>
+        <v>7.83</v>
       </c>
       <c r="M12" s="1">
-        <v>0.44</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N12">
-        <v>0.53</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="O12">
-        <v>-0.24</v>
+        <v>-0.17</v>
       </c>
       <c r="P12">
         <v>28.13</v>
       </c>
       <c r="Q12">
-        <v>-24.81</v>
+        <v>-28.16</v>
       </c>
       <c r="R12" s="2">
         <v>5</v>
@@ -2764,55 +2764,55 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2870</v>
+        <v>3873</v>
       </c>
       <c r="B13">
-        <v>2529</v>
+        <v>2603</v>
       </c>
       <c r="C13">
-        <v>341</v>
+        <v>1270</v>
       </c>
       <c r="D13">
-        <v>1542</v>
+        <v>1708</v>
       </c>
       <c r="E13">
-        <v>1328</v>
+        <v>2165</v>
       </c>
       <c r="F13">
-        <v>1377</v>
+        <v>1240</v>
       </c>
       <c r="G13">
-        <v>1152</v>
+        <v>1363</v>
       </c>
       <c r="H13">
-        <v>165</v>
+        <v>468</v>
       </c>
       <c r="I13">
-        <v>176</v>
+        <v>802</v>
       </c>
       <c r="J13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>13.18</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="M13" s="1">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="N13">
-        <v>0.52</v>
+        <v>0.24</v>
       </c>
       <c r="O13">
-        <v>0.2</v>
+        <v>-0.35</v>
       </c>
       <c r="P13">
         <v>28.13</v>
       </c>
       <c r="Q13">
-        <v>-24.81</v>
+        <v>-28.16</v>
       </c>
       <c r="R13" s="2">
         <v>5</v>
@@ -2823,55 +2823,55 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2879</v>
+        <v>3878</v>
       </c>
       <c r="B14">
-        <v>2538</v>
+        <v>2608</v>
       </c>
       <c r="C14">
-        <v>341</v>
+        <v>1270</v>
       </c>
       <c r="D14">
-        <v>2211</v>
+        <v>2877</v>
       </c>
       <c r="E14">
-        <v>668</v>
+        <v>1001</v>
       </c>
       <c r="F14">
-        <v>1937</v>
+        <v>1945</v>
       </c>
       <c r="G14">
-        <v>601</v>
+        <v>663</v>
       </c>
       <c r="H14">
-        <v>274</v>
+        <v>932</v>
       </c>
       <c r="I14">
-        <v>67</v>
+        <v>338</v>
       </c>
       <c r="J14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>7.23</v>
+        <v>6.13</v>
       </c>
       <c r="M14" s="1">
-        <v>0.51</v>
+        <v>0.3</v>
       </c>
       <c r="N14">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
       <c r="O14">
-        <v>-0.16</v>
+        <v>-0.09</v>
       </c>
       <c r="P14">
         <v>28.13</v>
       </c>
       <c r="Q14">
-        <v>-49.18</v>
+        <v>-29</v>
       </c>
       <c r="R14" s="2">
         <v>10</v>
@@ -2882,55 +2882,55 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2872</v>
+        <v>3871</v>
       </c>
       <c r="B15">
-        <v>2531</v>
+        <v>2601</v>
       </c>
       <c r="C15">
-        <v>341</v>
+        <v>1270</v>
       </c>
       <c r="D15">
-        <v>1875</v>
+        <v>2408</v>
       </c>
       <c r="E15">
-        <v>997</v>
+        <v>1463</v>
       </c>
       <c r="F15">
-        <v>1629</v>
+        <v>1632</v>
       </c>
       <c r="G15">
-        <v>902</v>
+        <v>969</v>
       </c>
       <c r="H15">
-        <v>246</v>
+        <v>776</v>
       </c>
       <c r="I15">
-        <v>95</v>
+        <v>494</v>
       </c>
       <c r="J15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>10.74</v>
+        <v>9.09</v>
       </c>
       <c r="M15" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.3</v>
       </c>
       <c r="N15">
-        <v>0.66</v>
+        <v>0.51</v>
       </c>
       <c r="O15">
-        <v>-0.19</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="P15">
         <v>28.13</v>
       </c>
       <c r="Q15">
-        <v>-49.18</v>
+        <v>-29</v>
       </c>
       <c r="R15" s="2">
         <v>10</v>
@@ -2941,55 +2941,55 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2872</v>
+        <v>3870</v>
       </c>
       <c r="B16">
-        <v>2531</v>
+        <v>2600</v>
       </c>
       <c r="C16">
-        <v>341</v>
+        <v>1270</v>
       </c>
       <c r="D16">
-        <v>1788</v>
+        <v>2267</v>
       </c>
       <c r="E16">
-        <v>1084</v>
+        <v>1603</v>
       </c>
       <c r="F16">
-        <v>1556</v>
+        <v>1561</v>
       </c>
       <c r="G16">
-        <v>975</v>
+        <v>1039</v>
       </c>
       <c r="H16">
-        <v>232</v>
+        <v>706</v>
       </c>
       <c r="I16">
-        <v>109</v>
+        <v>564</v>
       </c>
       <c r="J16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>11.9</v>
+        <v>10.1</v>
       </c>
       <c r="M16" s="1">
-        <v>0.6</v>
+        <v>0.27</v>
       </c>
       <c r="N16">
-        <v>0.72</v>
+        <v>0.53</v>
       </c>
       <c r="O16">
-        <v>-0.26</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="P16">
         <v>28.13</v>
       </c>
       <c r="Q16">
-        <v>-49.18</v>
+        <v>-29</v>
       </c>
       <c r="R16" s="2">
         <v>10</v>
@@ -3000,55 +3000,55 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2869</v>
+        <v>3866</v>
       </c>
       <c r="B17">
-        <v>2528</v>
+        <v>2596</v>
       </c>
       <c r="C17">
-        <v>341</v>
+        <v>1270</v>
       </c>
       <c r="D17">
-        <v>1638</v>
+        <v>2029</v>
       </c>
       <c r="E17">
-        <v>1231</v>
+        <v>1837</v>
       </c>
       <c r="F17">
-        <v>1445</v>
+        <v>1451</v>
       </c>
       <c r="G17">
-        <v>1083</v>
+        <v>1145</v>
       </c>
       <c r="H17">
-        <v>193</v>
+        <v>578</v>
       </c>
       <c r="I17">
-        <v>148</v>
+        <v>692</v>
       </c>
       <c r="J17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>14.36</v>
+        <v>12.32</v>
       </c>
       <c r="M17" s="1">
-        <v>0.68</v>
+        <v>0.25</v>
       </c>
       <c r="N17">
-        <v>0.75</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O17">
-        <v>0.15</v>
+        <v>-0.36</v>
       </c>
       <c r="P17">
         <v>28.13</v>
       </c>
       <c r="Q17">
-        <v>-49.18</v>
+        <v>-29</v>
       </c>
       <c r="R17" s="2">
         <v>10</v>
